--- a/Income/WELL_inc.xlsx
+++ b/Income/WELL_inc.xlsx
@@ -2094,16 +2094,16 @@
         <v>0.416</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4421</v>
+        <v>0.442</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4641</v>
+        <v>0.464</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4701</v>
+        <v>0.47</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4712</v>
+        <v>0.4711</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4712</v>
@@ -2224,7 +2224,7 @@
         <v>0.1808</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2126</v>
+        <v>0.2125</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.2282</v>
@@ -2351,13 +2351,13 @@
         <v>0.0348</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0653</v>
+        <v>0.0652</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0946</v>
+        <v>0.0945</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1061</v>
+        <v>0.106</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0904</v>
@@ -2475,16 +2475,16 @@
         <v>-0.0241</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0259</v>
+        <v>0.0285</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1754</v>
+        <v>0.1778</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.1933</v>
+        <v>0.1957</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.2383</v>
+        <v>0.2406</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.2176</v>
@@ -2596,22 +2596,22 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.0</v>
+        <v>0.8903</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.9446</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.6969</v>
+        <v>0.673</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.6875</v>
+        <v>0.6647</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-0.0403</v>
+        <v>-0.0624</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-0.061</v>
+        <v>-0.0831</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1006</v>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.0</v>
+        <v>0.3621</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.3753</v>
@@ -4107,7 +4107,7 @@
         <v>0.4313</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.438</v>
+        <v>0.4379</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0.4393</v>
@@ -4222,22 +4222,22 @@
         </is>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2929</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0.3033</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.3327</v>
+        <v>0.3088</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.3229</v>
+        <v>0.3002</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.3362</v>
+        <v>0.314</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.322</v>
+        <v>0.2999</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.3103</v>
